--- a/data/case1/11/P_device_2.xlsx
+++ b/data/case1/11/P_device_2.xlsx
@@ -62,34 +62,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.049304640838330666</v>
+        <v>0.082103155963927699</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.04930464219909024</v>
+        <v>-0.082103156380908524</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.032405965052886621</v>
+        <v>-0.020392998586153895</v>
       </c>
       <c r="B2" s="0">
-        <v>0.032405963603429164</v>
+        <v>0.02039299817222703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.080721544508881485</v>
+        <v>-0.049602940957051325</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.080721545869456318</v>
+        <v>0.049602940529234647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.072138423167172214</v>
+        <v>-0.040120672343372195</v>
       </c>
       <c r="B4" s="0">
-        <v>0.072138421764057936</v>
+        <v>0.040120671903458978</v>
       </c>
     </row>
   </sheetData>
